--- a/datasets/tree_DBH_hollows/input/Plot 07.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 07.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn tree_hollows/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A223C7F-BC10-AE47-B75D-75C4420075E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E0284-CA46-8D4A-98DD-B09D3AAE1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="500" windowWidth="23500" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,14 +117,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="81" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,51 +481,68 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J2" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>218</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>38.200000000000003</v>
+        <v>44.7</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>217</v>
+        <v>586</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>44.7</v>
+        <v>36.6</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -539,273 +556,276 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>586</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>38.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>216</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>41.4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>215</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>44.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>214</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>41.4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>219</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>35.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>201</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>203</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>36.6</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>213</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>38.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>216</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>41.4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>215</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>44.6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>214</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>41.4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>219</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>35.4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>201</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>203</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>206</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>205</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>50.3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>584</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>37.6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>209</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>204</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>36.6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>206</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>205</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>50.3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>584</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>37.6</v>
-      </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -817,20 +837,17 @@
       </c>
       <c r="I16">
         <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -847,13 +864,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>35.299999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -870,13 +887,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>39.200000000000003</v>
+        <v>53.8</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -893,13 +910,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>53.8</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -916,36 +933,33 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>35.700000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>28.6</v>
+        <v>24.8</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -959,13 +973,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -979,13 +993,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -999,13 +1013,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1019,13 +1033,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>28.5</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1039,13 +1053,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>26.4</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1059,13 +1073,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>26.4</v>
+        <v>24.7</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1079,13 +1093,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>24.7</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1099,13 +1113,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>29.2</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1119,33 +1133,39 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>29.2</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1165,13 +1185,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>30.4</v>
+        <v>31.9</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1191,13 +1211,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>31.9</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1217,13 +1237,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>32.6</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1243,13 +1263,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>32.6</v>
+        <v>30.9</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1269,13 +1289,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1295,13 +1315,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>32.9</v>
+        <v>30.4</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1321,13 +1341,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>30.4</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1347,13 +1367,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1373,19 +1393,20 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>438</v>
+        <v>201</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>31.9</v>
+        <f>O41*100/PI()</f>
+        <v>41.38028520389279</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1395,11 +1416,17 @@
       </c>
       <c r="I41">
         <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <v>1.3</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1408,31 +1435,32 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <f>O42*100/PI()</f>
-        <v>41.38028520389279</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+        <f t="shared" ref="D42:D79" si="0">O42*100/PI()</f>
+        <v>39.152116000606256</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42">
-        <v>1.3</v>
+        <v>17</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1.23</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1441,32 +1469,33 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D80" si="0">O43*100/PI()</f>
-        <v>39.152116000606256</v>
+        <f t="shared" si="0"/>
+        <v>41.38028520389279</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1.23</v>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="O43" s="5">
+        <v>1.3</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1476,7 +1505,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>41.38028520389279</v>
+        <v>44.085919236455013</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -1490,18 +1519,20 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="O44" s="5">
-        <v>1.3</v>
-      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44">
+        <v>1.385</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1511,34 +1542,27 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>44.085919236455013</v>
+        <v>56.659159740714742</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
       <c r="O45">
-        <v>1.385</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+        <v>1.78</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1548,7 +1572,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>56.659159740714742</v>
+        <v>42.335214862444161</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -1563,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>206</v>
+        <v>584</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1578,7 +1602,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>42.335214862444161</v>
+        <v>41.539440146984681</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -1592,13 +1616,16 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
       <c r="O47">
-        <v>1.33</v>
+        <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>584</v>
+        <v>208</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1608,7 +1635,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>41.539440146984681</v>
+        <v>51.566201561774093</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -1622,16 +1649,13 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>21</v>
-      </c>
       <c r="O48">
-        <v>1.3049999999999999</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1641,7 +1665,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>51.566201561774093</v>
+        <v>39.311270943698155</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -1656,12 +1680,12 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1.62</v>
+        <v>1.2350000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1671,7 +1695,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>39.311270943698155</v>
+        <v>42.81267969171985</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -1686,12 +1710,12 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1.2350000000000001</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>210</v>
+        <v>586</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1701,12 +1725,12 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>42.81267969171985</v>
+        <v>39.470425886790046</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" s="2">
@@ -1715,13 +1739,16 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
       <c r="O51">
-        <v>1.345</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>586</v>
+        <v>212</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1731,12 +1758,12 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>39.470425886790046</v>
+        <v>59.842258602552647</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>0</v>
       </c>
       <c r="H52" s="2">
@@ -1745,16 +1772,13 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>20</v>
-      </c>
       <c r="O52">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -1764,7 +1788,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>59.842258602552647</v>
+        <v>42.653524748627952</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -1779,12 +1803,12 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1794,7 +1818,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>42.653524748627952</v>
+        <v>44.245074179546904</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -1809,12 +1833,12 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1824,7 +1848,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>44.245074179546904</v>
+        <v>48.383102699936181</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -1839,12 +1863,12 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1854,7 +1878,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>48.383102699936181</v>
+        <v>43.290144520995533</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -1869,12 +1893,12 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1882,10 +1906,6 @@
       <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>43.290144520995533</v>
-      </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
@@ -1898,13 +1918,22 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="O57">
-        <v>1.36</v>
-      </c>
+      <c r="J57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1912,6 +1941,10 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>40.743665431525208</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
@@ -1924,22 +1957,13 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
+      <c r="O58">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>218</v>
+      <c r="A59" s="3">
+        <v>219</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1949,7 +1973,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>40.743665431525208</v>
+        <v>35.969017138768344</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -1964,12 +1988,12 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1.28</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>219</v>
+        <v>421</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1979,11 +2003,9 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>35.969017138768344</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>28.966199642724952</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="G60" s="2">
         <v>0</v>
       </c>
@@ -1993,13 +2015,16 @@
       <c r="I60" s="2">
         <v>0</v>
       </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
       <c r="O60">
-        <v>1.1299999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2009,7 +2034,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>28.966199642724952</v>
+        <v>25.783100780887047</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61" s="2">
@@ -2021,16 +2046,13 @@
       <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>19</v>
-      </c>
       <c r="O61">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -2040,7 +2062,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>25.783100780887047</v>
+        <v>26.738030439438418</v>
       </c>
       <c r="E62" s="2"/>
       <c r="G62" s="2">
@@ -2053,12 +2075,12 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -2068,25 +2090,24 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>26.738030439438418</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
+        <v>33.581692992389918</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0.84</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -2096,7 +2117,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>33.581692992389918</v>
+        <v>26.578875496346523</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2108,12 +2129,12 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1.0549999999999999</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -2123,24 +2144,24 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>26.578875496346523</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
+        <v>31.830988618379067</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0.83499999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -2150,24 +2171,24 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>31.830988618379067</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
+        <v>29.921129301276324</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2177,7 +2198,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
-        <v>29.921129301276324</v>
+        <v>35.014087480216979</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2189,12 +2210,12 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.94</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2204,7 +2225,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>35.014087480216979</v>
+        <v>24.98732606542757</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2216,12 +2237,12 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1.1000000000000001</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2231,24 +2252,24 @@
       </c>
       <c r="D69">
         <f t="shared" si="0"/>
-        <v>24.98732606542757</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
+        <v>38.515496228238675</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0.78500000000000003</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2258,7 +2279,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="0"/>
-        <v>38.515496228238675</v>
+        <v>35.969017138768344</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -2270,12 +2291,12 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1.21</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -2285,7 +2306,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="0"/>
-        <v>35.969017138768344</v>
+        <v>26.738030439438418</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -2297,12 +2318,12 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1.1299999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2312,7 +2333,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="0"/>
-        <v>26.738030439438418</v>
+        <v>25.942255723978942</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -2324,12 +2345,12 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0.84</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -2339,10 +2360,10 @@
       </c>
       <c r="D73">
         <f t="shared" si="0"/>
-        <v>25.942255723978942</v>
+        <v>33.422538049298019</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2351,12 +2372,12 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.81499999999999995</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -2366,10 +2387,10 @@
       </c>
       <c r="D74">
         <f t="shared" si="0"/>
-        <v>33.422538049298019</v>
+        <v>33.74084793548181</v>
       </c>
       <c r="G74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2378,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2393,7 +2414,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="0"/>
-        <v>33.74084793548181</v>
+        <v>33.104228163114229</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -2405,12 +2426,12 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -2420,7 +2441,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="0"/>
-        <v>33.104228163114229</v>
+        <v>33.422538049298019</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -2432,12 +2453,12 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2447,7 +2468,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="0"/>
-        <v>33.422538049298019</v>
+        <v>34.695777594033189</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -2459,12 +2480,12 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>1.05</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -2474,7 +2495,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="0"/>
-        <v>34.695777594033189</v>
+        <v>31.194368846011486</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -2485,13 +2506,14 @@
       <c r="I78" s="2">
         <v>0</v>
       </c>
+      <c r="J78" s="2"/>
       <c r="O78">
-        <v>1.0900000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -2501,7 +2523,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="0"/>
-        <v>31.194368846011486</v>
+        <v>32.467608390746648</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2512,37 +2534,14 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-      <c r="J79" s="2"/>
       <c r="O79">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>440</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="0"/>
-        <v>32.467608390746648</v>
-      </c>
-      <c r="G80" s="2">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1.02</v>
-      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G81" s="2"/>
@@ -2554,11 +2553,6 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
